--- a/表关系.xlsx
+++ b/表关系.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AE347923-79AF-4EC2-85B5-BF86F10005DF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{29613A7C-BB84-4029-B739-25601D1F49D0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -690,7 +690,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -798,6 +798,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -863,7 +875,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -901,12 +913,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -931,67 +983,30 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -1386,14 +1401,14 @@
       <c r="D1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="L1" s="24" t="s">
+      <c r="F1" s="35"/>
+      <c r="L1" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="24"/>
+      <c r="M1" s="38"/>
       <c r="O1" s="2" t="s">
         <v>65</v>
       </c>
@@ -1409,10 +1424,10 @@
       <c r="S1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="U1" s="16"/>
+      <c r="U1" s="24"/>
       <c r="V1" s="7" t="s">
         <v>77</v>
       </c>
@@ -1421,16 +1436,16 @@
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="31" t="s">
         <v>107</v>
       </c>
       <c r="L2" s="9" t="s">
@@ -1457,10 +1472,10 @@
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="32"/>
       <c r="L3" s="11" t="s">
         <v>35</v>
       </c>
@@ -1479,10 +1494,10 @@
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="32"/>
       <c r="L4" s="11" t="s">
         <v>36</v>
       </c>
@@ -1501,10 +1516,10 @@
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="32"/>
       <c r="L5" s="11" t="s">
         <v>37</v>
       </c>
@@ -1523,10 +1538,10 @@
       <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="18"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="32"/>
       <c r="L6" s="11" t="s">
         <v>38</v>
       </c>
@@ -1545,10 +1560,10 @@
       <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="18"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="32"/>
       <c r="L7" s="11" t="s">
         <v>39</v>
       </c>
@@ -1567,10 +1582,10 @@
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="18"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="32"/>
       <c r="L8" s="11" t="s">
         <v>40</v>
       </c>
@@ -1589,10 +1604,10 @@
       <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="18"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="32"/>
       <c r="L9" s="11" t="s">
         <v>41</v>
       </c>
@@ -1611,17 +1626,17 @@
       <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="20" t="s">
+      <c r="E10" s="32"/>
+      <c r="F10" s="34" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="11" t="s">
@@ -1642,11 +1657,11 @@
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
       <c r="L11" s="13" t="s">
         <v>43</v>
       </c>
@@ -1665,103 +1680,103 @@
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="28" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="28"/>
-      <c r="F13" s="20"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="23"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="28"/>
-      <c r="F14" s="20"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="23"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="28"/>
-      <c r="F15" s="20"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="23"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="28"/>
-      <c r="F16" s="20"/>
-      <c r="J16" s="22" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="23"/>
+      <c r="F16" s="34"/>
+      <c r="J16" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="28"/>
-      <c r="F17" s="20"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="23"/>
+      <c r="F17" s="34"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="28"/>
-      <c r="F18" s="20"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="23"/>
+      <c r="F18" s="34"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="28"/>
-      <c r="F19" s="20"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="23"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="28"/>
-      <c r="F20" s="20"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="23"/>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -1776,42 +1791,42 @@
       <c r="D21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="20"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
       <c r="I22" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
       <c r="I24" t="s">
         <v>90</v>
       </c>
@@ -1823,12 +1838,12 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
       <c r="I25" t="s">
         <v>91</v>
       </c>
@@ -1837,16 +1852,16 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
       <c r="J26" t="s">
         <v>89</v>
       </c>
-      <c r="O26" s="16" t="s">
+      <c r="O26" s="24" t="s">
         <v>90</v>
       </c>
       <c r="P26" t="s">
@@ -1854,31 +1869,31 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="O27" s="16"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="O27" s="24"/>
     </row>
     <row r="28" spans="1:17" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="O28" s="16"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="O28" s="24"/>
     </row>
     <row r="29" spans="1:17" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="O29" s="16"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="O29" s="24"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
@@ -1890,7 +1905,7 @@
       <c r="K30" t="s">
         <v>93</v>
       </c>
-      <c r="O30" s="16"/>
+      <c r="O30" s="24"/>
       <c r="P30" t="s">
         <v>88</v>
       </c>
@@ -1902,10 +1917,10 @@
       <c r="K31" t="s">
         <v>94</v>
       </c>
-      <c r="O31" s="16" t="s">
+      <c r="O31" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="P31" s="34" t="s">
+      <c r="P31" s="25" t="s">
         <v>89</v>
       </c>
       <c r="Q31" t="s">
@@ -1919,8 +1934,8 @@
       <c r="K32" t="s">
         <v>95</v>
       </c>
-      <c r="O32" s="16"/>
-      <c r="P32" s="34"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="25"/>
       <c r="Q32" t="s">
         <v>99</v>
       </c>
@@ -1932,22 +1947,22 @@
       <c r="K33" t="s">
         <v>96</v>
       </c>
-      <c r="O33" s="16"/>
-      <c r="P33" s="34"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="25"/>
       <c r="Q33" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O34" s="16"/>
-      <c r="P34" s="34"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="25"/>
       <c r="Q34" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O35" s="16"/>
-      <c r="P35" s="34"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="25"/>
       <c r="Q35" t="s">
         <v>102</v>
       </c>
@@ -1956,8 +1971,8 @@
       <c r="A36" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O36" s="16"/>
-      <c r="P36" s="34"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="25"/>
       <c r="Q36" t="s">
         <v>103</v>
       </c>
@@ -2022,14 +2037,14 @@
       <c r="E41" t="s">
         <v>121</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="G41" s="15"/>
-      <c r="I41" s="15" t="s">
+      <c r="G41" s="30"/>
+      <c r="I41" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="J41" s="15"/>
+      <c r="J41" s="30"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
@@ -2041,11 +2056,11 @@
       <c r="C42" t="s">
         <v>159</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
       <c r="I42" t="s">
         <v>123</v>
       </c>
@@ -2063,9 +2078,9 @@
       <c r="C43" t="s">
         <v>160</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -2077,9 +2092,9 @@
       <c r="C44" t="s">
         <v>161</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
@@ -2272,22 +2287,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D20"/>
-    <mergeCell ref="O26:O30"/>
-    <mergeCell ref="P31:P36"/>
-    <mergeCell ref="O31:O36"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="C22:C29"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="E22:F29"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="E42:G44"/>
@@ -2297,6 +2296,22 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="J16:N18"/>
     <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="E22:F29"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D20"/>
+    <mergeCell ref="O26:O30"/>
+    <mergeCell ref="P31:P36"/>
+    <mergeCell ref="O31:O36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2309,8 +2324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422A6CD0-C6EE-4715-B92E-500830CED583}">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2319,138 +2334,189 @@
       <c r="A1" s="14">
         <v>2</v>
       </c>
-      <c r="B1" s="43">
+      <c r="B1" s="17">
         <v>8.6805555555555566E-2</v>
       </c>
-      <c r="C1" s="43">
+      <c r="C1" s="17">
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="D1" s="43">
+      <c r="D1" s="17">
         <v>9.375E-2</v>
       </c>
-      <c r="E1" s="43">
+      <c r="E1" s="17">
         <v>9.7222222222222196E-2</v>
       </c>
-      <c r="F1" s="43">
+      <c r="F1" s="17">
         <v>0.100694444444444</v>
       </c>
-      <c r="G1" s="43">
+      <c r="G1" s="17">
         <v>0.104166666666667</v>
       </c>
-      <c r="H1" s="43">
+      <c r="H1" s="17">
         <v>0.10763888888888901</v>
       </c>
-      <c r="I1" s="43">
+      <c r="I1" s="17">
         <v>0.11111111111111099</v>
       </c>
-      <c r="J1" s="43">
+      <c r="J1" s="17">
         <v>0.114583333333333</v>
       </c>
-      <c r="K1" s="43">
+      <c r="K1" s="17">
         <v>0.118055555555555</v>
       </c>
-      <c r="L1" s="43">
+      <c r="L1" s="17">
         <v>0.121527777777778</v>
       </c>
-      <c r="M1" s="43">
+      <c r="M1" s="17">
         <v>0.125</v>
       </c>
-      <c r="N1" s="43">
+      <c r="N1" s="17">
         <v>0.12847222222222199</v>
       </c>
-      <c r="O1" s="43">
+      <c r="O1" s="17">
         <v>0.131944444444444</v>
       </c>
-      <c r="P1" s="35">
+      <c r="P1" s="15">
         <v>0.13541666666666599</v>
       </c>
-      <c r="Q1" s="35">
+      <c r="Q1" s="15">
         <v>0.13888888888888901</v>
       </c>
-      <c r="R1" s="35">
+      <c r="R1" s="15">
         <v>0.14236111111111099</v>
       </c>
-      <c r="S1" s="35">
+      <c r="S1" s="15">
         <v>0.14583333333333301</v>
       </c>
-      <c r="T1" s="35">
+      <c r="T1" s="15">
         <v>0.149305555555555</v>
       </c>
-      <c r="U1" s="35">
+      <c r="U1" s="15">
         <v>0.15277777777777801</v>
       </c>
-      <c r="V1" s="35">
+      <c r="V1" s="15">
         <v>0.15625</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="18" t="s">
         <v>159</v>
       </c>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="J8" s="41" t="s">
+      <c r="J8" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="M8" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="N8" s="42"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="M9" s="45" t="s">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M10" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="N10" s="40"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M11" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
@@ -2518,8 +2584,8 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="M10:N10"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:C3"/>

--- a/表关系.xlsx
+++ b/表关系.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{29613A7C-BB84-4029-B739-25601D1F49D0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{850342B8-E8DC-4E9B-BE13-8F5922884D39}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="任务时间线" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="任务时间线" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="172">
   <si>
     <t>srvcc</t>
   </si>
@@ -619,6 +620,34 @@
   </si>
   <si>
     <t>bigxdrmr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始数据xdr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spark处理的数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每小时120G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天2.5T左右</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天200G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每小时几M到3G不等</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -923,90 +952,90 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -1364,10 +1393,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:V78"/>
+    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1401,14 +1431,14 @@
       <c r="D1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="L1" s="38" t="s">
+      <c r="F1" s="28"/>
+      <c r="L1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="38"/>
+      <c r="M1" s="31"/>
       <c r="O1" s="2" t="s">
         <v>65</v>
       </c>
@@ -1424,10 +1454,10 @@
       <c r="S1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="T1" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="U1" s="24"/>
+      <c r="U1" s="23"/>
       <c r="V1" s="7" t="s">
         <v>77</v>
       </c>
@@ -1436,16 +1466,16 @@
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="24" t="s">
         <v>107</v>
       </c>
       <c r="L2" s="9" t="s">
@@ -1472,10 +1502,10 @@
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="25"/>
       <c r="L3" s="11" t="s">
         <v>35</v>
       </c>
@@ -1494,10 +1524,10 @@
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="25"/>
       <c r="L4" s="11" t="s">
         <v>36</v>
       </c>
@@ -1516,10 +1546,10 @@
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="25"/>
       <c r="L5" s="11" t="s">
         <v>37</v>
       </c>
@@ -1538,10 +1568,10 @@
       <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="32"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="25"/>
       <c r="L6" s="11" t="s">
         <v>38</v>
       </c>
@@ -1560,10 +1590,10 @@
       <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="32"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="25"/>
       <c r="L7" s="11" t="s">
         <v>39</v>
       </c>
@@ -1582,10 +1612,10 @@
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="32"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="25"/>
       <c r="L8" s="11" t="s">
         <v>40</v>
       </c>
@@ -1604,10 +1634,10 @@
       <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="25"/>
       <c r="L9" s="11" t="s">
         <v>41</v>
       </c>
@@ -1626,17 +1656,17 @@
       <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="34" t="s">
+      <c r="E10" s="25"/>
+      <c r="F10" s="27" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="11" t="s">
@@ -1657,11 +1687,11 @@
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
       <c r="L11" s="13" t="s">
         <v>43</v>
       </c>
@@ -1680,103 +1710,103 @@
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="23" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="34"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="23"/>
-      <c r="F13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="35"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="23"/>
-      <c r="F14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="35"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="23"/>
-      <c r="F15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="35"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="23"/>
-      <c r="F16" s="34"/>
-      <c r="J16" s="36" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="35"/>
+      <c r="F16" s="27"/>
+      <c r="J16" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="23"/>
-      <c r="F17" s="34"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="35"/>
+      <c r="F17" s="27"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="23"/>
-      <c r="F18" s="34"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="35"/>
+      <c r="F18" s="27"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="23"/>
-      <c r="F19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="35"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="23"/>
-      <c r="F20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="35"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -1791,42 +1821,42 @@
       <c r="D21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="34"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
       <c r="I22" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
       <c r="I24" t="s">
         <v>90</v>
       </c>
@@ -1838,12 +1868,12 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
       <c r="I25" t="s">
         <v>91</v>
       </c>
@@ -1852,16 +1882,16 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="13.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
       <c r="J26" t="s">
         <v>89</v>
       </c>
-      <c r="O26" s="24" t="s">
+      <c r="O26" s="23" t="s">
         <v>90</v>
       </c>
       <c r="P26" t="s">
@@ -1869,31 +1899,31 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="O27" s="24"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="O27" s="23"/>
     </row>
     <row r="28" spans="1:17" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="O28" s="24"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="O28" s="23"/>
     </row>
     <row r="29" spans="1:17" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="O29" s="24"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="O29" s="23"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
@@ -1905,7 +1935,7 @@
       <c r="K30" t="s">
         <v>93</v>
       </c>
-      <c r="O30" s="24"/>
+      <c r="O30" s="23"/>
       <c r="P30" t="s">
         <v>88</v>
       </c>
@@ -1917,10 +1947,10 @@
       <c r="K31" t="s">
         <v>94</v>
       </c>
-      <c r="O31" s="24" t="s">
+      <c r="O31" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="P31" s="25" t="s">
+      <c r="P31" s="41" t="s">
         <v>89</v>
       </c>
       <c r="Q31" t="s">
@@ -1934,8 +1964,8 @@
       <c r="K32" t="s">
         <v>95</v>
       </c>
-      <c r="O32" s="24"/>
-      <c r="P32" s="25"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="41"/>
       <c r="Q32" t="s">
         <v>99</v>
       </c>
@@ -1947,22 +1977,22 @@
       <c r="K33" t="s">
         <v>96</v>
       </c>
-      <c r="O33" s="24"/>
-      <c r="P33" s="25"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="41"/>
       <c r="Q33" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O34" s="24"/>
-      <c r="P34" s="25"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="41"/>
       <c r="Q34" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O35" s="24"/>
-      <c r="P35" s="25"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="41"/>
       <c r="Q35" t="s">
         <v>102</v>
       </c>
@@ -1971,8 +2001,8 @@
       <c r="A36" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O36" s="24"/>
-      <c r="P36" s="25"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="41"/>
       <c r="Q36" t="s">
         <v>103</v>
       </c>
@@ -2037,14 +2067,14 @@
       <c r="E41" t="s">
         <v>121</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="G41" s="30"/>
-      <c r="I41" s="30" t="s">
+      <c r="G41" s="22"/>
+      <c r="I41" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="J41" s="30"/>
+      <c r="J41" s="22"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
@@ -2056,11 +2086,11 @@
       <c r="C42" t="s">
         <v>159</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
       <c r="I42" t="s">
         <v>123</v>
       </c>
@@ -2078,9 +2108,9 @@
       <c r="C43" t="s">
         <v>160</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -2092,9 +2122,9 @@
       <c r="C44" t="s">
         <v>161</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
@@ -2287,6 +2317,22 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D20"/>
+    <mergeCell ref="O26:O30"/>
+    <mergeCell ref="P31:P36"/>
+    <mergeCell ref="O31:O36"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="E22:F29"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="E42:G44"/>
@@ -2296,22 +2342,6 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="J16:N18"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="C22:C29"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="E22:F29"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D20"/>
-    <mergeCell ref="O26:O30"/>
-    <mergeCell ref="P31:P36"/>
-    <mergeCell ref="O31:O36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2321,10 +2351,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A51A6C-2D42-43F0-969C-3AECC306DDE8}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422A6CD0-C6EE-4715-B92E-500830CED583}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -2399,124 +2480,124 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="J7" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="J8" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="M10" s="40" t="s">
+      <c r="M10" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="N10" s="40"/>
+      <c r="N10" s="43"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="M11" s="39" t="s">
+      <c r="M11" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
